--- a/PRODUTOS/Bazar/Bazar - Utilidades domesticas.xlsx
+++ b/PRODUTOS/Bazar/Bazar - Utilidades domesticas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Papel Toalha Yuri Gran Fd 240 Toalhas</t>
+          <t>Vela P/filtro Bella Filtro Crist</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 15,98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5f0a01b-df29-4862-89e2-a56c4f304842.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75808e83-c8cd-45a7-9362-51be5a9edc17.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898031530077</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Panela De Pressao Panelux 4,5l</t>
+          <t>Porta Filtro 102 Melitta Color</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 54,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d2c4e53-c713-4af2-8f22-8504739a724c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51108c7e-5127-4b49-8b7e-4ae90188b038.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891021000925</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vassoura Alklin Dentro E Fora C/ Cabo</t>
+          <t>Porta Filtro 103 Melitta Color</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51a5d532-532f-41f1-86c3-badde4aca18f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3b51248-297b-466b-9763-f0d9697f1366.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891021000949</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rodinho Pia 13cm Plasutil</t>
+          <t>Panela De Pressao Panelux 4,5l</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 54,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c308540-8473-4e6a-9e62-b7ca7ace6448.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d2c4e53-c713-4af2-8f22-8504739a724c.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7898147771029</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rodo Alkin 40cm Sem Cabo</t>
+          <t>Prato Fundo Astral Und</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1dd0cde3-a041-4e3c-80b7-1db989c8aa20.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b52832eb-0fda-4652-92e6-a1b465c18fbe.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891155033943</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Potes Feirinha Sanremo Un Sr37</t>
+          <t>Peneira Plastica 11cm</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b74b5000-61a1-4835-9711-7ac300b76bd0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cec2b3db-101b-45b6-ab7e-85dd6ad59f47.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896849405358</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pote Tramontina 300ml Mix Color</t>
+          <t>Conjunto De Copo Batuque</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db8e1bfd-c5df-4c7d-815f-93627e83c20f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3764600-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891155017684</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Assadeira Marinex 2,4lts Oval</t>
+          <t>Conjunto De Copo Ginga</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 19,98</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df7c7f78-285d-4e58-87df-cb5c7adc045b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df249a12-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891155025115</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vela P/filtro Bella Filtro Crist</t>
+          <t>Conj De Copo Nature Branco C/6 280ml Cad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 15,98</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75808e83-c8cd-45a7-9362-51be5a9edc17.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82d59c00-7356-4fb4-ae48-6f557987cd5d.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891155065852</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Conj De Copo Nature Branco C/6 280ml Cad</t>
+          <t>Colher Ref Festa Ali Cristal C/10</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82d59c00-7356-4fb4-ae48-6f557987cd5d.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7897991607430</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Saboneteira Plast Sanremo</t>
+          <t>Facilita Vap 500ml</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 5,29</t>
+          <t>R$ 31,98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25d17977-072c-4ae7-8f2e-3fd22e653372.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/758396ab-2050-41b6-abd6-43dedd0c3a78.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7894993109696</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vela P/filtro Use Util</t>
+          <t>Rodinho Pia 13cm Plasutil</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 16,98</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e02da386-52c3-45b3-91ae-0313501f5b48.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c308540-8473-4e6a-9e62-b7ca7ace6448.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896042029771</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pulverizador C/ Borrifador 500ml</t>
+          <t>Colher Ref Festa Ali Bca C/10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5aca16dc-7f9b-46d8-bc07-718899f14e72.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7897991610348</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Assadeira Marinex 1,6lts Retangular</t>
+          <t>Bacia 30l Inplast</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 19,98</t>
+          <t>R$ 26,98</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/737c3ea5-c439-48aa-aad3-46f5cf883bd2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ba85e02-76a1-4649-b9ce-5d76d9f1dc1e.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7897649766335</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Peneira Plastica 11cm</t>
+          <t>Peneira Colorida 16cm</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 5,89</t>
+          <t>R$ 11,98</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cec2b3db-101b-45b6-ab7e-85dd6ad59f47.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896849405389</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Espremedor De Limao Use Util</t>
+          <t>Prato Fundo Acqua Und</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 20,98</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33450584-f1fa-46b1-9f5a-fcfb9fc92dc9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e16ae1f1-c861-4cd1-af6e-c5a089f5ec16.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891155033943</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Frigideira Oliveira 13cm</t>
+          <t>Vela P/filtro Use Util</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 16,98</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e56e9e06-02f0-4274-9a69-e77cdbf7a623.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e02da386-52c3-45b3-91ae-0313501f5b48.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896771221415</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lixeira Vime Nitron 12 Litros Preta</t>
+          <t>Espremedor De Limao Use Util</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 18,98</t>
+          <t>R$ 20,98</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0c2ec68-3c82-4c7f-a1c2-9eba3f35a206.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33450584-f1fa-46b1-9f5a-fcfb9fc92dc9.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896771220449</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Colher Ref Festa Ali Cristal C/10</t>
+          <t>Taca Gallant 320ml</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 13,98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/001f30ae-a2ea-4c79-8ed8-48146087b788.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891155000372</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Taca Barone Agua/ Vinho 490ml</t>
+          <t>Copo Cylinder Long Drink Nadir 300ml Vd</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee1eadec-4855-4dee-b8c0-fbd9d6ad43ab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d30dd8cd-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891155005032</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Taca Windsor Cerveja 330 Ml</t>
+          <t>Taça Vinho Gal 220 Ml</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 13,98</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5f52ffe3-d145-4f74-820a-ed99ba756d19.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0bc8c255-0c0b-4fe8-9754-6169edd414c4.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891155000372</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Funil Plast Sanremo 12,8 Cm</t>
+          <t>Taca Barone Agua/ Vinho 490ml</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/816afc07-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ee1eadec-4855-4dee-b8c0-fbd9d6ad43ab.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891155040866</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Porta Filtro 103 Melitta Color</t>
+          <t>Taca Barone Vinho 385 Ml</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3b51248-297b-466b-9763-f0d9697f1366.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f6ed356-22a6-41ca-b449-3e13dec1976a.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891155040958</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Pote Alho Plástico Sanremo</t>
+          <t>Taca Gin 600ml</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/237ce2b7-ec75-4889-bc75-b8cfc9db21f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de648a1e-29f6-4c2f-b8f9-2ba54eef1f75.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891155056584</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Conjunto De Copo Ginga</t>
+          <t>Tabua De Carne Plastica Dec 23x37 Cm</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 29,89</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df249a12-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a81b48d-fee9-48ac-a502-9d5b7474f59e.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7899701854691</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Copo Cylinder Long Drink Nadir 300ml Vd</t>
+          <t>Pulverizador C/ Borrifador 500ml</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d30dd8cd-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5aca16dc-7f9b-46d8-bc07-718899f14e72.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7899701868179</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Taça Vinho Gal 220 Ml</t>
+          <t>Concha Para Panqueca Plástico Sanremo 2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 13,98</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0bc8c255-0c0b-4fe8-9754-6169edd414c4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/478e8456-b140-4f1a-92fe-da3818cf351f.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896359029969</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Porta Filtro 102 Melitta Color</t>
+          <t>Pote Alho Plástico Sanremo</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51108c7e-5127-4b49-8b7e-4ae90188b038.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/237ce2b7-ec75-4889-bc75-b8cfc9db21f0.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896359033102</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Porta Escova Dentes Plast Sanremo</t>
+          <t>Concha P/ Sorv Picnic Santana 19cm Un</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,93</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e122da7a-8bb9-4ce1-8419-e8eb75b88027.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3aae1d1-6770-41aa-b115-efb25d379830.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896355701913</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kit Pote Redondo Coloratto Nitron C/3 Peças 450ml</t>
+          <t>Bico De Confeitar Bolo C/9 Festa Ali</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 5,98</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7e5da0b-65d4-4c54-8421-205139156ea1.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7897991607744</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Taça Barone Champanhe 190ml</t>
+          <t>Conj De Copos Zumba C/06 270ml Cada</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 19,98</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e7e42cb-1e05-4703-929e-f004e4da1e1d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/350e9f44-fa3d-4508-a3a3-e15292488dfb.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7891155065814</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Porta Detergente Plastico Sanremo</t>
+          <t>Taca Windsor Cerveja 330 Ml</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b6c4fbd-b2b9-4427-a92f-d59d644b4562.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5f52ffe3-d145-4f74-820a-ed99ba756d19.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7891155008224</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Taca Barone Vinho 385 Ml</t>
+          <t>Refil P/ Acqua Bella/vitle Lorenzetti</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 49,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f6ed356-22a6-41ca-b449-3e13dec1976a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/295039e7-389c-4253-af39-b82484c3c769.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896451813862</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Conj De Copos Zumba C/06 270ml Cada</t>
+          <t>Pote Quad Plast Sanremo 280ml</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/350e9f44-fa3d-4508-a3a3-e15292488dfb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e874601a-8b73-447e-9986-4823d9ae33b7.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896359015092</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Espatula Plast Sanremo Un</t>
+          <t>Rodinho Condor Multiuso 1122</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f46c680a-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/463b6b9f-4fd8-4162-aeb2-9f1c48a72248.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7891055585801</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Pote Sanduiche Plast Sanremo 664ml</t>
+          <t>Bisnaga Condimentos Plast Sanremo</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/827fa6ef-ec53-46f7-9182-59b55df6b55a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82132df5-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896359012473</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Conj 4 Potes Plastico Sanremo.200ml</t>
+          <t>Colher Plast Sanremo Un</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/290fbf63-0b68-4c97-a2e5-d56e46ada9ff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4f283a1-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896359013890</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Kit C/3 Potes Quadrado Coloratto Nitron 360ml</t>
+          <t>Espatula Plast Sanremo Un</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/236b1d45-9111-4ad3-8de3-e3fe9ac3944f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f46c680a-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896359013913</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pote C/tampa Tramontina 600ml Mix Color</t>
+          <t>Funil Plast Sanremo 12,8 Cm</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c54857a0-26d2-47f2-a39e-b032ab7dffc0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/816afc07-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896359014941</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Prato Fundo Astral Und</t>
+          <t>Porta Bisc Maria Plast Sanremo 400ml</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b52832eb-0fda-4652-92e6-a1b465c18fbe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76d5649e-8541-4f3c-a672-e2440d0521c0.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896359013760</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Conjunto De Copo Batuque</t>
+          <t>Porta Bisc Recheado Plast Sanremo 200ml</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3764600-c0b6-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14065c8c-0244-48da-8f14-90da9dad8d7d.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896359013739</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Porta Mantimentos Plast Sanremo 1l</t>
+          <t>Porta Escova Dentes Plast Sanremo</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d4501fc-44dc-421a-9860-09a6e87b0dd3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e122da7a-8bb9-4ce1-8419-e8eb75b88027.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896359044610</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Frigideira Alum Tramontina 28cm Verm</t>
+          <t>Porta Macarrão Plast Sanremo 950ml</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 54,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b7d6b94-5c08-450a-876c-5b00ed699efd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06148db3-822f-4c3a-9868-601e0d22019b.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896359013746</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Forma Descartavel De Papel Pratsy 50 Unidades</t>
+          <t>Porta Mantimentos Plast Sanremo 1,7l</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b4b95e54-18e3-437d-9043-fedbc549eafa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24d1ae94-97e9-4e00-a2af-9156493db36b.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896359013791</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Bisnaga Condimentos Plast Sanremo</t>
+          <t>Porta Mantimentos Plast Sanremo 1l</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82132df5-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d4501fc-44dc-421a-9860-09a6e87b0dd3.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896359013784</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Panela Wok Alum Loreto 24cm Sem Tempa Vermelho</t>
+          <t>Panela Wok Alum Loreto 28cm S/tp Vermelha</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 54,99</t>
+          <t>R$ 44,98</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa04ec8a-a578-4d46-833c-48c17d4f22f4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/852f1dcd-c663-4231-9e09-09fd2ffd04a3.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7891112288539</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lixeira Pia Plastico Sanremo 6,5l</t>
+          <t>Jarra Plastica 3,7 L Jaguar</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 36,99</t>
+          <t>R$ 25,98</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04d34b02-366d-428f-90b3-3e6d4ccec284.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c3ff027-e7a8-4ca5-940c-21639d39eff2.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896952515654</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Porta Macarrão Plast Sanremo 950ml</t>
+          <t>Lixeira Pia Plastico Sanremo 6,5l</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 36,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06148db3-822f-4c3a-9868-601e0d22019b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04d34b02-366d-428f-90b3-3e6d4ccec284.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896359028429</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Frigideira Alum Tramontina 24cm Verm</t>
+          <t>Potes Feirinha Sanremo Un Sr37</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 58,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/daac3a54-9c48-4336-bb49-784068c2b5c8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b74b5000-61a1-4835-9711-7ac300b76bd0.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7896359039944</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rolo Adesivo De Bolsa Sanremo 50fls</t>
+          <t>Frigideira Alum Tramontina 28cm Verm</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 14,98</t>
+          <t>R$ 54,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/603ff018-d3e5-411e-acb0-45057e606332.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1b7d6b94-5c08-450a-876c-5b00ed699efd.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7891112241176</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Prato Fundo Acqua Und</t>
+          <t>Panela Wok Alum Tramonitna Grafite</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 44,98</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e16ae1f1-c861-4cd1-af6e-c5a089f5ec16.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04950e9a-0049-4226-a1b4-da7f4af8bcdd.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7891112288522</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Descascador De Legumes Use Util</t>
+          <t>Frigideira Alum Tramontina 20cm Verm</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 13,98</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f6f76bb-04f0-4ff8-96be-ef59e7575aa0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8450c5e-f009-476b-902d-f3eb83e31ff5.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7891112326347</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Taca Gin 600ml</t>
+          <t>Frigideira Alum Tramontina 22cm Turim V</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 42,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/de648a1e-29f6-4c2f-b8f9-2ba54eef1f75.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7891112326408</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Tabua De Carne Plastica Dec 23x37 Cm</t>
+          <t>Frigideira Alum Tramontina 24cm Turim V</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 29,89</t>
+          <t>R$ 52,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a81b48d-fee9-48ac-a502-9d5b7474f59e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/349cf092-9864-4a0f-9c45-fa42c14e16f1.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7891112326415</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Concha Para Panqueca Plástico Sanremo 2</t>
+          <t>Frigideira Alum Tramontina 24cm Verm</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 58,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/478e8456-b140-4f1a-92fe-da3818cf351f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/daac3a54-9c48-4336-bb49-784068c2b5c8.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7891112326354</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dispensador De Sabonete Liq Paris 450ml</t>
+          <t>Frigideira Alum Tramontina 26cm Turim V</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 11,98</t>
+          <t>R$ 56,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f399a6e-a929-4375-b222-2f3b8a3d35cd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9eb1fda1-bbe6-4d63-85f9-906d8246b80d.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7891112326422</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Refil P/ Acqua Bella/vitle Lorenzetti</t>
+          <t>Pote Tramontina 300ml Mix Color</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/295039e7-389c-4253-af39-b82484c3c769.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db8e1bfd-c5df-4c7d-815f-93627e83c20f.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7891112325692</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rodinho Condor Multiuso 1122</t>
+          <t>Conj 4 Potes Plastico Sanremo.200ml</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/463b6b9f-4fd8-4162-aeb2-9f1c48a72248.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/290fbf63-0b68-4c97-a2e5-d56e46ada9ff.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7896359033836</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Lixeira Red C/pedal Plast Sanremo 6,6l</t>
+          <t>Forma Picole Plastico Sanremo</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 39,98</t>
+          <t>R$ 18,98</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b1d7b36-102d-4e35-b511-17e660d01fee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3909e339-3888-4dd9-b991-f0b052781fc3.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7896359033102</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Refil P/ Mop Pva Flash Limp Geral Plus</t>
+          <t>Jarra Medidora Plastico Sanremo 1l</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 19,98</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ace4473a-585a-4464-9b34-ad6168b8ae3d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/826cb7af-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896359017966</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kit C/3 Potes Modulares Nitron 250ml Transparente</t>
+          <t>Porta Cereal Plastico Sanremo</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 11,98</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2d2a629-9271-44eb-8ace-081cdd550f07.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/188a73fd-cea2-44c8-8a82-c97da37d2c6d.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7896359012848</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bacia 30l Inplast</t>
+          <t>Porta Detergente Plastico Sanremo</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 26,98</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ba85e02-76a1-4649-b9ce-5d76d9f1dc1e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4b6c4fbd-b2b9-4427-a92f-d59d644b4562.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7896359012848</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Taca Gallant Champanhe 180 Ml</t>
+          <t>Frigideira Aluminio Tramontina 16cm Turim Vermelho Frigideira Alum Tramontina 16cm Turim Vermelho</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 13,98</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/15318bd0-369c-47fe-b416-2b12f12aaac9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f400d8a6-0e6e-4340-af6e-faf6bf3baee9.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7891112326378</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Pote Quad Plast Sanremo 280ml</t>
+          <t>Panela Wok Alum Loreto 24cm S/tp Grafite</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 54,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e874601a-8b73-447e-9986-4823d9ae33b7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dab0adc7-530f-440e-9b99-c62cdf37fb3a.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7891112318236</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Colher Plast Sanremo Un</t>
+          <t>Panela Wok Alum Loreto 24cm Sem Tempa Vermelho</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 54,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4f283a1-c0b7-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa04ec8a-a578-4d46-833c-48c17d4f22f4.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7891112288539</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Porta Bisc Maria Plast Sanremo 400ml</t>
+          <t>Rodo Alkin 40cm Sem Cabo</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/76d5649e-8541-4f3c-a672-e2440d0521c0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1dd0cde3-a041-4e3c-80b7-1db989c8aa20.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7897750778678</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Panela Wok Alum Loreto 28cm S/tp Vermelha</t>
+          <t>Conj 2 Potes Marmita Plast Sanremo</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 44,98</t>
+          <t>R$ 39,98</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/852f1dcd-c663-4231-9e09-09fd2ffd04a3.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896359046072</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Kit C/3 Potes Fit Coloratto Nitron 450ml</t>
+          <t>Conj 2 Potes Marmita Plast Sanremo Verde</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9648a6d4-ee7e-4851-a7fa-a1da1acef8bf.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7896359046089</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Colher Ref Festa Ali Bca C/10</t>
+          <t>Conj 3 Potes Plast Sanremo</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896359044900</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Porta Mantimentos Plast Sanremo 1,7l</t>
+          <t>Garrafa Term Sanremo Amar 1l Branca</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 49,98</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/24d1ae94-97e9-4e00-a2af-9156493db36b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf1a02aa-b75d-4883-8300-73b0444d32d4.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896359028696</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Frigideira Alum Tramontina 26cm Turim V</t>
+          <t>Garrafa Term Sanremo Amar 1l Preta</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 56,99</t>
+          <t>R$ 49,98</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9eb1fda1-bbe6-4d63-85f9-906d8246b80d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae8ce9e8-7f2f-4bc1-aec8-9579eae86576.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7896359028702</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Jarra Medidora Plastico Sanremo 1l</t>
+          <t>Garrafa Term Sanremo Amar 1l Vermelha</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 19,98</t>
+          <t>R$ 45,98</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/826cb7af-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f1fd0cf-9eef-445c-88aa-349c60616e79.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896359028726</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Panela Wok Alum Loreto 24cm S/tp Grafite</t>
+          <t>Garrafa Term Sanremo Gostar 750ml Branca</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 54,99</t>
+          <t>R$ 39,98</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dab0adc7-530f-440e-9b99-c62cdf37fb3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f29f28c-ed5e-4982-ab47-546304d149ea.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7896359028658</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Filme Pvc Pratsy C/cabo Giratorio 70m X12cm</t>
+          <t>Garrafa Term Sanremo Gostar 750ml Preta</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 39,98</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/745b930d-6224-41ee-b066-f54f767ae543.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7896359028665</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Facilita Vap 500ml</t>
+          <t>Pote Com Travas Plast Sanremo 770ml</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 31,98</t>
+          <t>R$ 19,98</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/758396ab-2050-41b6-abd6-43dedd0c3a78.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8142a1a1-ea37-414c-b8de-3655ed6e6230.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7896359029020</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cabo Usb Tipo C Kimaster Un</t>
+          <t>Refil Rolo Adesivo P/pelos Sanremo</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 11,98</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a2159e4-fb1d-4571-a8ee-f2f32915930a.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7896359043354</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Copo Nadir Contour Cristal 470ml</t>
+          <t>Rolo Adesivo De Bolsa Sanremo 30fls</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/878df913-d497-415a-b6b0-0b02f30915cb.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7896359045396</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Concha P/ Sorv Picnic Santana 19cm Un</t>
+          <t>Rolo Adesivo De Bolsa Sanremo 50fls</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 5,93</t>
+          <t>R$ 14,98</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3aae1d1-6770-41aa-b115-efb25d379830.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/603ff018-d3e5-411e-acb0-45057e606332.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7896359028030</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Frigideira Alum Tramontina 24cm Turim V</t>
+          <t>Bule Termico Exata 1l Tramontina Preto</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 52,99</t>
+          <t>R$ 59,98</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/349cf092-9864-4a0f-9c45-fa42c14e16f1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c47b4f9-5cdf-429b-ab7f-9900e9e70e23.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7891116169544</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Panela Wok Loreto Tramotina 28cm Preto</t>
+          <t>Bule Termico Exata 1l Tramontina Verm</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 44,98</t>
+          <t>R$ 59,98</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9881965e-f0a8-428a-8d01-126af5f6774b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b360844b-90fe-4806-8b86-84de76ecc819.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7891116169551</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Frigideira Aluminio Tramontina 16cm Turim Vermelho Frigideira Alum Tramontina 16cm Turim Vermelho</t>
+          <t>Caneca Porcelana 310ml Meu Pai</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 32,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f400d8a6-0e6e-4340-af6e-faf6bf3baee9.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7899701893034</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Pote Com Travas Plast Sanremo 770ml</t>
+          <t>Filme De Pvc Pratsy 28cm X 100metros</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 19,98</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8142a1a1-ea37-414c-b8de-3655ed6e6230.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7896300502046</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Facilita Vap 750ml</t>
+          <t>Frigideira Aluminio Tramontina 20cm Turim Preto</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74094482-d9c3-40c2-b9ee-04b6b88d0c85.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e379726b-271e-436d-93f9-c3b035348fe9.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7891112314122</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Taca Gallant 320ml</t>
+          <t>Kit C/3 Potes Modulares Nitron 250ml Transparente</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 13,98</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/001f30ae-a2ea-4c79-8ed8-48146087b788.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2d2a629-9271-44eb-8ace-081cdd550f07.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7896779635313</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Porta Bisc Recheado Plast Sanremo 200ml</t>
+          <t>Kit C/3 Potes Quadrado Coloratto Nitron 360ml</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14065c8c-0244-48da-8f14-90da9dad8d7d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/236b1d45-9111-4ad3-8de3-e3fe9ac3944f.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7896779679027</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Tabuas Para Alimentos Un</t>
+          <t>Kit C/5 Potes Acoplados Nitron Branco</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 79,98</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/65941ddc-ce9c-423d-8113-62c727a6048e.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7896779693122</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Jarra Plastica 3,7 L Jaguar</t>
+          <t>Kit C/6 Potes Modulares Nitron</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 25,98</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c3ff027-e7a8-4ca5-940c-21639d39eff2.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7896779635313</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Porta Cereal Plastico Sanremo</t>
+          <t>Kit Pote Redondo Coloratto Nitron C/3 Peças 450ml</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 11,98</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/188a73fd-cea2-44c8-8a82-c97da37d2c6d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7e5da0b-65d4-4c54-8421-205139156ea1.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7896779630417</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Frigideira Aluminio Tramontina 20cm Turim Preto</t>
+          <t>Lixeira Vime Nitron 12 Litros Preta</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 18,98</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e379726b-271e-436d-93f9-c3b035348fe9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0c2ec68-3c82-4c7f-a1c2-9eba3f35a206.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7896779651634</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Caneca Antiv Aprend Magia Azul Lilo</t>
+          <t>Panquequeira Aluminio Tramontina 22cm Preto</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 44,98</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb92cb44-10ec-4511-b900-fcc5fd211f36.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7891112326200</t>
         </is>
       </c>
     </row>
@@ -2891,962 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Cabo Usb Kimaster Micro V8 Un</t>
+          <t>Pote C/tampa Tramontina 600ml Mix Color</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 49,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e6325eb3-8ea0-4a5f-a811-438f2cdddf5e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Panela Wok Alum Tramonitna Grafite</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>R$ 44,98</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/04950e9a-0049-4226-a1b4-da7f4af8bcdd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Frigideira Alum Tramontina 20cm Verm</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8450c5e-f009-476b-902d-f3eb83e31ff5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Frigideira Alum Tramontina 22cm Turim V</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>R$ 42,99</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Forma Picole Plastico Sanremo</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>R$ 18,98</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3909e339-3888-4dd9-b991-f0b052781fc3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Garrafa Term Sanremo Gostar 750ml Preta</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>R$ 39,98</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/745b930d-6224-41ee-b066-f54f767ae543.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Bule Termico Exata 1l Tramontina Verm</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>R$ 59,98</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b360844b-90fe-4806-8b86-84de76ecc819.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Kit Com 3 Frigideiras 16/20/24 Alegrete</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>R$ 59,99</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Kit C/5 Potes Acoplados Nitron Branco</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Kit C/6 Potes Modulares Nitron</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Peneira Colorida 16cm</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>R$ 11,98</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Carregador De Paraede P/ Celular Un</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>R$ 39,98</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Acendedor Automotivo C/ 2 Saidas Un</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>R$ 9,93</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Suporte Ima Automotivo P/ Celular Un</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>R$ 9,93</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Cabo Usb Kimaster P/ Iphone 5/6/7/8 Un</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6ecce45-eaa3-43ec-aef4-f8ed06837dfa.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Bico De Confeitar Bolo C/9 Festa Ali</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>R$ 5,98</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Caneca Antivazamento Disney 207ml Azul</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ffbe3605-8183-4b32-8748-abebc657f18b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Copo Colors Disney Bico Em Tpe Minnie Rosa</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/06f4152a-58a8-404d-9561-4799ea4b645e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Refil P/ Mop Spray Flash Limp Verm</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>R$ 17,99</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Chinelo Ipanema Navy Feminino Bege/azul</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Bule Termico Exata 0,5 Tramontina Preto</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>R$ 49,98</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/78c4812d-b711-4485-98a5-e24a107d1d96.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Bule Termico Exata 0,5 Tramontina Verm</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>R$ 49,98</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2fc55c0-8bb9-40ae-9998-83b0d56c370d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Conj 2 Potes Marmita Plast Sanremo</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>R$ 39,98</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Conj 2 Potes Marmita Plast Sanremo Verde</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9648a6d4-ee7e-4851-a7fa-a1da1acef8bf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Conj 3 Potes Plast Sanremo</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Garrafa Term Sanremo Amar 1l Branca</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>R$ 49,98</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf1a02aa-b75d-4883-8300-73b0444d32d4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>Garrafa Term Sanremo Amar 1l Preta</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>R$ 49,98</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ae8ce9e8-7f2f-4bc1-aec8-9579eae86576.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>Garrafa Term Sanremo Amar 1l Vermelha</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>R$ 45,98</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f1fd0cf-9eef-445c-88aa-349c60616e79.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Garrafa Term Sanremo Gostar 750ml Branca</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>R$ 39,98</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f29f28c-ed5e-4982-ab47-546304d149ea.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Refil Rolo Adesivo P/pelos Sanremo</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>R$ 11,98</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Rolo Adesivo De Bolsa Sanremo 30fls</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Bule Termico Exata 1l Tramontina Preto</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>R$ 59,98</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c47b4f9-5cdf-429b-ab7f-9900e9e70e23.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Caneca Porcelana 310ml Meu Pai</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Filme De Pvc Pratsy 28cm X 100metros</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>R$ 27,99</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Kit C/3 Potes Tampa Fixa Nitron</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>R$ 9,98</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Utilidades domesticas</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Panquequeira Aluminio Tramontina 22cm Preto</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>R$ 44,98</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c54857a0-26d2-47f2-a39e-b032ab7dffc0.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7891112325708</t>
         </is>
       </c>
     </row>
